--- a/my-chatbot/client/public/Universidades1.xlsx
+++ b/my-chatbot/client/public/Universidades1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Super-PC\Desktop\tesis\tesis14\my-chatbot\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A83701D-FC88-4499-AE39-25C580191B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6525AC-B2E8-499A-9B41-19CF6C13A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,10 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>https://www.utdtest.com/Themes2G/comunicaciones/Images/logo-secundario.svg</t>
-  </si>
-  <si>
-    <t>https://scontent.faep24-1.fna.fbcdn.net/v/t39.30808-6/327436997_1930120767319004_2025655574534719690_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=ZT5iJ-GczfIQ7kNvgGLXHT7&amp;_nc_ht=scontent.faep24-1.fna&amp;oh=00_AYCs68elqgKBSAsJJ5NhhFSDiMgx3CzdCr7dlHREroTiag&amp;oe=668CB904</t>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSP8VCW4LSWHplGgEw0r9fnWQEH1EAmllOPnQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_H2Jk7Jla58xmkXU5MoCab8mjctQfMigtag&amp;s</t>
   </si>
 </sst>
 </file>
@@ -604,23 +604,23 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="62.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.296875" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="114.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="114.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -879,9 +879,7 @@
     <hyperlink ref="D4" r:id="rId3" display="https://www.uade.edu.ar/" xr:uid="{A61D4A19-8C1C-5F41-8EC7-F17B85D4FF97}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://www.utdt.edu/" xr:uid="{E544F7EF-372C-1544-8194-AD8651EFE0B3}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{EE27BF68-3AA7-024E-98BB-09C4C603D2D2}"/>
-    <hyperlink ref="K6" r:id="rId6" display="https://scontent.faep24-1.fna.fbcdn.net/v/t39.30808-6/327436997_1930120767319004_2025655574534719690_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=ZT5iJ-GczfIQ7kNvgGLXHT7&amp;_nc_ht=scontent.faep24-1.fna&amp;oh=00_AYCs68elqgKBSAsJJ5NhhFSDiMgx3CzdCr7dlHREroTiag&amp;oe=668CB904" xr:uid="{A08C882B-E993-4FD3-AFFD-23351EAADE2C}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{4E9780E0-D9C2-487E-A835-F8BF69EF150C}"/>
-    <hyperlink ref="K4" r:id="rId8" xr:uid="{21843420-A6BA-45B8-9F04-CAED497F4371}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{21843420-A6BA-45B8-9F04-CAED497F4371}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my-chatbot/client/public/Universidades1.xlsx
+++ b/my-chatbot/client/public/Universidades1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Super-PC\Desktop\tesis\tesis14\my-chatbot\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Desktop/Tesis/Datos /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6525AC-B2E8-499A-9B41-19CF6C13A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F5694-0088-B943-BBD0-EE5D6DA302E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Universidad</t>
   </si>
@@ -106,6 +106,9 @@
     <t>ingreso@uca.edu.ar</t>
   </si>
   <si>
+    <t xml:space="preserve">Instagram </t>
+  </si>
+  <si>
     <t>Twitter</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTMhxIAvfGuy1fJP2SbILWDYqDk67O7gLmW1A&amp;s</t>
   </si>
   <si>
+    <t>https://artenlinea.s3-accelerate.amazonaws.com/digital_files/510/large_10177922_808898155804372_6764366353506386933_n.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4c/Bandera-uca.png</t>
+  </si>
+  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -217,20 +226,95 @@
     <t>https://www.topuniversities.com/world-university-rankings/2024?tab=indicators&amp;countries=ar&amp;sort_by=rank&amp;order_by=asc</t>
   </si>
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSP8VCW4LSWHplGgEw0r9fnWQEH1EAmllOPnQ&amp;s</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_H2Jk7Jla58xmkXU5MoCab8mjctQfMigtag&amp;s</t>
+    <t>Universidad de Palermo</t>
+  </si>
+  <si>
+    <t>Universidad Austral</t>
+  </si>
+  <si>
+    <t>Universidad de Belgrano</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>AUSTRAL</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>(011) 51994500</t>
+  </si>
+  <si>
+    <t>(011) 52398000</t>
+  </si>
+  <si>
+    <t>(011) 47885400</t>
+  </si>
+  <si>
+    <t>www.ub.edu.ar </t>
+  </si>
+  <si>
+    <t>ingresos@ub.edu.ar</t>
+  </si>
+  <si>
+    <t>http://web.austral.edu.ar/comunicacion-home.asp </t>
+  </si>
+  <si>
+    <t>informesfc@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>www.palermo.edu </t>
+  </si>
+  <si>
+    <t>informes@palermo.edu</t>
+  </si>
+  <si>
+    <t>https://yt3.googleusercontent.com/qsYtKITsTtBvMiqCa1JdvDsA6ipKLTa2GncJ87fHOavytQ6mkgmQgitjzf3s3DWeM1VLfb5kccI=s900-c-k-c0x00ffffff-no-rj</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTepzjs78k5KFGt2kHbB3p1Rxh3-4j8JQ28Yw&amp;s</t>
+  </si>
+  <si>
+    <t>761-770</t>
+  </si>
+  <si>
+    <t>Innovadora y global, con programas de excelencia.</t>
+  </si>
+  <si>
+    <t>Educación privada con enfoque internacional.</t>
+  </si>
+  <si>
+    <t>Excelencia académica y compromiso con la investigación.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/universidaddepalermo/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/universidadbelgrano/</t>
+  </si>
+  <si>
+    <t>https://x.com/ubeduar/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/univaustral/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/UPalermo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AustralEduAR</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b4/Logo-up.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +343,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,11 +379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -601,37 +702,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75DD394-886A-F744-89DD-50EC7F0E0F44}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.25" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="114.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="114.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -640,39 +741,39 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -693,27 +794,27 @@
         <v>1959</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -734,27 +835,27 @@
         <v>1988</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -775,27 +876,27 @@
         <v>1957</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -816,27 +917,27 @@
         <v>1991</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -857,19 +958,142 @@
         <v>1958</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
       </c>
       <c r="L6">
         <v>514</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>14000</v>
+      </c>
+      <c r="H7">
+        <v>1986</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>530</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+      <c r="H8">
+        <v>1991</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8">
+        <v>520</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+      <c r="H9">
+        <v>1964</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1103,9 @@
     <hyperlink ref="D4" r:id="rId3" display="https://www.uade.edu.ar/" xr:uid="{A61D4A19-8C1C-5F41-8EC7-F17B85D4FF97}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://www.utdt.edu/" xr:uid="{E544F7EF-372C-1544-8194-AD8651EFE0B3}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{EE27BF68-3AA7-024E-98BB-09C4C603D2D2}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{21843420-A6BA-45B8-9F04-CAED497F4371}"/>
+    <hyperlink ref="O1" r:id="rId6" xr:uid="{FD2EC6E4-35C6-6F4D-8256-3D29ADE1B67E}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{BCA60285-6F0D-1042-9508-F5A18B59DB63}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{277C2002-5800-5144-BF5E-08BACA589F17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my-chatbot/client/public/Universidades1.xlsx
+++ b/my-chatbot/client/public/Universidades1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Desktop/Tesis/Datos /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Desktop/Tesis/Tesis14/tesis14/my-chatbot/client/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F5694-0088-B943-BBD0-EE5D6DA302E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783EF70-3962-D84A-84E7-9C0CEA663844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{734B2E0E-EC6D-3043-8697-C844BDEEE9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>informes@palermo.edu</t>
   </si>
   <si>
-    <t>https://yt3.googleusercontent.com/qsYtKITsTtBvMiqCa1JdvDsA6ipKLTa2GncJ87fHOavytQ6mkgmQgitjzf3s3DWeM1VLfb5kccI=s900-c-k-c0x00ffffff-no-rj</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTepzjs78k5KFGt2kHbB3p1Rxh3-4j8JQ28Yw&amp;s</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/b/b4/Logo-up.jpg</t>
+  </si>
+  <si>
+    <t>https://image.isu.pub/151222200802-538202372acaaf66c565385754dd52e7/jpg/page_1_thumb_large.jpg</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,19 +999,19 @@
         <v>1986</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7">
         <v>530</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1040,19 +1040,19 @@
         <v>1991</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>520</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1081,19 +1081,19 @@
         <v>1964</v>
       </c>
       <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
         <v>85</v>
       </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
       <c r="K9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1106,6 +1106,7 @@
     <hyperlink ref="O1" r:id="rId6" xr:uid="{FD2EC6E4-35C6-6F4D-8256-3D29ADE1B67E}"/>
     <hyperlink ref="J7" r:id="rId7" xr:uid="{BCA60285-6F0D-1042-9508-F5A18B59DB63}"/>
     <hyperlink ref="J8" r:id="rId8" xr:uid="{277C2002-5800-5144-BF5E-08BACA589F17}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{F3578BFE-9049-754C-8BE8-AC0C0F4051B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
